--- a/models/Athens DESFA exit point new obj/Data/parameters_guide_new_obj.xlsx
+++ b/models/Athens DESFA exit point new obj/Data/parameters_guide_new_obj.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epuntuagr-my.sharepoint.com/personal/hkoutalidis_epu_ntua_gr/Documents/Enershare/Paper 2 H2 scenarios paper/P2G_Hydrogen_Repository_remote/models/Athens DESFA exit point new obj/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="11_F25DC773A252ABDACC104899015D5D385ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0CD0D2F-6C3E-41B1-85AC-93F5C7E5712A}"/>
+  <xr:revisionPtr revIDLastSave="225" documentId="11_F25DC773A252ABDACC104899015D5D385ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6EDC0B0-5D51-42FD-B1DD-B79151FEBB16}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulations S2.1 (own RES inve)" sheetId="1" r:id="rId1"/>
     <sheet name="Simulations S2.2 (PPAs)" sheetId="2" r:id="rId2"/>
+    <sheet name="Experiments schedule" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,19 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
-  <si>
-    <t>Main (2024)</t>
-  </si>
-  <si>
-    <t>Low end 1 (-5%)</t>
-  </si>
-  <si>
-    <t>Low end 2 (-10%)</t>
-  </si>
-  <si>
-    <t>Low end 3 (-20%)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="45">
   <si>
     <t>Generators</t>
   </si>
@@ -114,9 +103,6 @@
     <t>Var Opex (EUR/MWh)</t>
   </si>
   <si>
-    <t>Max injection ratio (Natural gas grid exit point UC)</t>
-  </si>
-  <si>
     <t>Max injection ratio (MHA)</t>
   </si>
   <si>
@@ -126,23 +112,74 @@
     <t>Wind marginal costs (EUR/MWh)</t>
   </si>
   <si>
-    <t>Wind Fixed opex (as capex in pypsa) (EUR/MW/year)</t>
-  </si>
-  <si>
     <t>Solar capital costs (EUR/MW)</t>
   </si>
   <si>
     <t>Solar marginal costs (EUR/MWh)</t>
   </si>
   <si>
-    <t>Solar Fixed opex (as capex in pypsa) (EUR/MW/year)</t>
+    <t xml:space="preserve">sensitivity analysis scenario </t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>LE1</t>
+  </si>
+  <si>
+    <t>LE2</t>
+  </si>
+  <si>
+    <t>LE3</t>
+  </si>
+  <si>
+    <t>Wind Fixed opex (EUR/MW/year)</t>
+  </si>
+  <si>
+    <t>Solar Fixed opex  (EUR/MW/year)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max injection ratio (MHA) </t>
+  </si>
+  <si>
+    <t>Scenario 1 (S1) -OWN RES</t>
+  </si>
+  <si>
+    <t>H2 sale price</t>
+  </si>
+  <si>
+    <t>SENSITIVITY ANALYSIS SCENARIO</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Scenario 2 (S2) -PPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low End 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low End 2 </t>
+  </si>
+  <si>
+    <t>Low End 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +240,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -224,7 +288,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -232,11 +296,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -244,15 +337,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -268,6 +395,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -533,10 +664,473 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1104000</v>
+      </c>
+      <c r="C3" s="7">
+        <f>B3*0.95</f>
+        <v>1048800</v>
+      </c>
+      <c r="D3" s="7">
+        <f>B3*0.9</f>
+        <v>993600</v>
+      </c>
+      <c r="E3" s="7">
+        <f>B3*0.8</f>
+        <v>883200</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <f t="shared" ref="C4:C9" si="0">B4*0.95</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <f t="shared" ref="D4:D9" si="1">B4*0.9</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" ref="E4:E9" si="2">B4*0.8</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>27400</v>
+      </c>
+      <c r="C5" s="7">
+        <f t="shared" si="0"/>
+        <v>26030</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="1"/>
+        <v>24660</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="2"/>
+        <v>21920</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7">
+        <v>680000</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="0"/>
+        <v>646000</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="1"/>
+        <v>612000</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="2"/>
+        <v>544000</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7">
+        <v>15250</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" si="0"/>
+        <v>14487.5</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="1"/>
+        <v>13725</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" si="2"/>
+        <v>12200</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <v>14500</v>
+      </c>
+      <c r="C13" s="7">
+        <f>B13*0.95</f>
+        <v>13775</v>
+      </c>
+      <c r="D13" s="7">
+        <f>B13*0.9</f>
+        <v>13050</v>
+      </c>
+      <c r="E13" s="7">
+        <f>B13*0.8</f>
+        <v>11600</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <v>290</v>
+      </c>
+      <c r="C14" s="7">
+        <f>B14*0.95</f>
+        <v>275.5</v>
+      </c>
+      <c r="D14" s="7">
+        <f>B14*0.9</f>
+        <v>261</v>
+      </c>
+      <c r="E14" s="7">
+        <f>B14*0.8</f>
+        <v>232</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="7">
+        <v>924000</v>
+      </c>
+      <c r="C21" s="7">
+        <f>B21*0.95</f>
+        <v>877800</v>
+      </c>
+      <c r="D21" s="7">
+        <f>B21*0.9</f>
+        <v>831600</v>
+      </c>
+      <c r="E21" s="7">
+        <f>D21*0.8</f>
+        <v>665280</v>
+      </c>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="7">
+        <v>18480</v>
+      </c>
+      <c r="C22" s="7">
+        <f>B22*0.95</f>
+        <v>17556</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" ref="D22" si="3">B22*0.9</f>
+        <v>16632</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" ref="E22" si="4">D22*0.8</f>
+        <v>13305.6</v>
+      </c>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1.33</v>
+      </c>
+      <c r="C23" s="7">
+        <f>$B$23</f>
+        <v>1.33</v>
+      </c>
+      <c r="D23" s="7">
+        <f>$B$23</f>
+        <v>1.33</v>
+      </c>
+      <c r="E23" s="7">
+        <f>$B$23</f>
+        <v>1.33</v>
+      </c>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.79</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0.82</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="D26" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF26B971-9089-40B6-B7D9-B4FE2F3EF079}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,352 +1144,389 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>1104000</v>
-      </c>
-      <c r="C3">
-        <f>B3*0.95</f>
-        <v>1048800</v>
-      </c>
-      <c r="D3">
-        <f>B3*0.9</f>
-        <v>993600</v>
-      </c>
-      <c r="E3">
-        <f>B3*0.8</f>
-        <v>883200</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="13">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="12">
-        <v>0</v>
-      </c>
-      <c r="C4" s="12">
-        <f t="shared" ref="C4:C9" si="0">B4*0.95</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="12">
-        <f t="shared" ref="D4:D9" si="1">B4*0.9</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="12">
-        <f t="shared" ref="E4:E9" si="2">B4*0.8</f>
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="7">
+        <v>53</v>
+      </c>
+      <c r="C4" s="7">
+        <f>B4*0.95</f>
+        <v>50.349999999999994</v>
+      </c>
+      <c r="D4" s="7">
+        <f>B4*0.9</f>
+        <v>47.7</v>
+      </c>
+      <c r="E4" s="7">
+        <f>B4*0.8</f>
+        <v>42.400000000000006</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>27400</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>26030</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
-        <v>24660</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="2"/>
-        <v>21920</v>
+        <v>31</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>680000</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>646000</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>612000</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="2"/>
-        <v>544000</v>
+        <v>24</v>
+      </c>
+      <c r="B7" s="13">
+        <v>0</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="12">
-        <v>0</v>
-      </c>
-      <c r="C8" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="B8" s="7">
+        <v>31.8</v>
+      </c>
+      <c r="C8" s="7">
+        <f>B8*0.95</f>
+        <v>30.21</v>
+      </c>
+      <c r="D8" s="7">
+        <f>B8*0.9</f>
+        <v>28.62</v>
+      </c>
+      <c r="E8" s="7">
+        <f>B8*0.8</f>
+        <v>25.44</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>15250</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>14487.5</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>13725</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="2"/>
-        <v>12200</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B9" s="13">
+        <v>0</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
         <v>14500</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="7">
         <f>B13*0.95</f>
         <v>13775</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="7">
         <f>B13*0.9</f>
         <v>13050</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="7">
         <f>B13*0.8</f>
         <v>11600</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
+      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="7">
         <v>290</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="7">
         <f>B14*0.95</f>
         <v>275.5</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="7">
         <f>B14*0.9</f>
         <v>261</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="7">
         <f>B14*0.8</f>
         <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
+      <c r="A16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7">
         <v>0.99</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="7">
         <v>0.99</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="7">
         <v>0.99</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="7">
         <v>0.99</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
+      <c r="A17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7">
         <v>0.99</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="7">
         <v>0.99</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="7">
         <v>0.99</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="7">
         <v>0.99</v>
       </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21">
+      <c r="A21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="7">
         <v>924000</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="7">
         <f>B21*0.95</f>
         <v>877800</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="7">
         <f>B21*0.9</f>
         <v>831600</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="7">
         <f>D21*0.8</f>
         <v>665280</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22">
+      <c r="A22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="7">
         <v>18480</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="7">
         <f>B22*0.95</f>
         <v>17556</v>
       </c>
-      <c r="D22">
-        <f t="shared" ref="D22" si="3">B22*0.9</f>
+      <c r="D22" s="7">
+        <f t="shared" ref="D22" si="0">B22*0.9</f>
         <v>16632</v>
       </c>
-      <c r="E22">
-        <f t="shared" ref="E22" si="4">D22*0.8</f>
+      <c r="E22" s="7">
+        <f t="shared" ref="E22" si="1">D22*0.8</f>
         <v>13305.6</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23">
+      <c r="A23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="7">
         <v>1.33</v>
       </c>
-      <c r="C23">
-        <f>$B$23</f>
+      <c r="C23" s="7">
         <v>1.33</v>
       </c>
-      <c r="D23">
-        <f>$B$23</f>
+      <c r="D23" s="7">
         <v>1.33</v>
       </c>
-      <c r="E23">
-        <f>$B$23</f>
-        <v>1.33</v>
+      <c r="E23" s="14">
+        <v>1.06</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24">
+      <c r="A24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="7">
         <v>0.75600000000000001</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="7">
         <v>0.79</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="9">
         <v>0.82</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="9">
         <v>0.85</v>
       </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8">
+        <v>21</v>
+      </c>
+      <c r="B26" s="10">
         <v>0.1</v>
       </c>
-      <c r="C26" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="D26" s="9">
+      <c r="C26" s="10">
         <v>0.2</v>
       </c>
-      <c r="E26" s="10">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>22</v>
+      <c r="D26" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -903,348 +1534,266 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF26B971-9089-40B6-B7D9-B4FE2F3EF079}">
-  <dimension ref="A1:E26"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7809701A-2FC3-419D-BEE8-A269C50FB095}">
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.140625" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="16" customWidth="1"/>
+    <col min="6" max="10" width="9.140625" style="16"/>
+    <col min="11" max="11" width="33.5703125" style="16" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="16" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="16" customWidth="1"/>
+    <col min="14" max="15" width="13.85546875" style="16" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="22">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="22">
+        <v>3.5</v>
+      </c>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="22">
+        <v>3.5</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="22">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="11">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4">
-        <v>53</v>
-      </c>
-      <c r="C4">
-        <f>B4*0.95</f>
-        <v>50.349999999999994</v>
-      </c>
-      <c r="D4">
-        <f>B4*0.9</f>
-        <v>47.7</v>
-      </c>
-      <c r="E4">
-        <f>B4*0.8</f>
-        <v>42.400000000000006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="11">
-        <v>0</v>
-      </c>
-      <c r="C5" s="11">
-        <v>0</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="11">
-        <v>0</v>
-      </c>
-      <c r="C7" s="11">
-        <v>0</v>
-      </c>
-      <c r="D7" s="11">
-        <v>0</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8">
-        <v>31.8</v>
-      </c>
-      <c r="C8">
-        <f>B8*0.95</f>
-        <v>30.21</v>
-      </c>
-      <c r="D8">
-        <f>B8*0.9</f>
-        <v>28.62</v>
-      </c>
-      <c r="E8">
-        <f>B8*0.8</f>
-        <v>25.44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="11">
-        <v>0</v>
-      </c>
-      <c r="C9" s="11">
-        <v>0</v>
-      </c>
-      <c r="D9" s="11">
-        <v>0</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>14500</v>
-      </c>
-      <c r="C13">
-        <f>B13*0.95</f>
-        <v>13775</v>
-      </c>
-      <c r="D13">
-        <f>B13*0.9</f>
-        <v>13050</v>
-      </c>
-      <c r="E13">
-        <f>B13*0.8</f>
-        <v>11600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14">
-        <v>290</v>
-      </c>
-      <c r="C14">
-        <f>B14*0.95</f>
-        <v>275.5</v>
-      </c>
-      <c r="D14">
-        <f>B14*0.9</f>
-        <v>261</v>
-      </c>
-      <c r="E14">
-        <f>B14*0.8</f>
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>0.99</v>
-      </c>
-      <c r="C16">
-        <v>0.99</v>
-      </c>
-      <c r="D16">
-        <v>0.99</v>
-      </c>
-      <c r="E16">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>0.99</v>
-      </c>
-      <c r="C17">
-        <v>0.99</v>
-      </c>
-      <c r="D17">
-        <v>0.99</v>
-      </c>
-      <c r="E17">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21">
-        <v>924000</v>
-      </c>
-      <c r="C21">
-        <f>B21*0.95</f>
-        <v>877800</v>
-      </c>
-      <c r="D21">
-        <f>B21*0.9</f>
-        <v>831600</v>
-      </c>
-      <c r="E21">
-        <f>D21*0.8</f>
-        <v>665280</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22">
-        <v>18480</v>
-      </c>
-      <c r="C22">
-        <f>B22*0.95</f>
-        <v>17556</v>
-      </c>
-      <c r="D22">
-        <f t="shared" ref="D22" si="0">B22*0.9</f>
-        <v>16632</v>
-      </c>
-      <c r="E22">
-        <f t="shared" ref="E22" si="1">D22*0.8</f>
-        <v>13305.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23">
-        <v>1.33</v>
-      </c>
-      <c r="C23">
-        <v>1.33</v>
-      </c>
-      <c r="D23">
-        <v>1.33</v>
-      </c>
-      <c r="E23" s="5">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="C24">
-        <v>0.79</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0.82</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="C26" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="D26" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="E26" s="10">
-        <v>0.4</v>
-      </c>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="22">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="22">
+        <v>4.5</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="22">
+        <v>4.5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="22">
+        <v>5</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="22">
+        <v>5</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="22">
+        <v>5.5</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="22">
+        <v>5.5</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="K8" s="22">
+        <v>6</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="18"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="22">
+        <v>6</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="K9" s="22">
+        <v>6.5</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/models/Athens DESFA exit point new obj/Data/parameters_guide_new_obj.xlsx
+++ b/models/Athens DESFA exit point new obj/Data/parameters_guide_new_obj.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epuntuagr-my.sharepoint.com/personal/hkoutalidis_epu_ntua_gr/Documents/Enershare/Paper 2 H2 scenarios paper/P2G_Hydrogen_Repository_remote/models/Athens DESFA exit point new obj/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="225" documentId="11_F25DC773A252ABDACC104899015D5D385ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6EDC0B0-5D51-42FD-B1DD-B79151FEBB16}"/>
+  <xr:revisionPtr revIDLastSave="256" documentId="11_F25DC773A252ABDACC104899015D5D385ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDF4EBC0-54EF-44B6-80E6-B0722EEFB4FB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulations S2.1 (own RES inve)" sheetId="1" r:id="rId1"/>
@@ -329,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -358,9 +358,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -666,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,8 +753,8 @@
         <v>24660</v>
       </c>
       <c r="E5" s="7">
-        <f t="shared" si="2"/>
-        <v>21920</v>
+        <f>B5*0.75</f>
+        <v>20550</v>
       </c>
       <c r="F5" s="7"/>
     </row>
@@ -785,7 +782,7 @@
         <v>612000</v>
       </c>
       <c r="E7" s="7">
-        <f t="shared" si="2"/>
+        <f>B7*0.8</f>
         <v>544000</v>
       </c>
       <c r="F7" s="7"/>
@@ -823,12 +820,12 @@
         <v>14487.5</v>
       </c>
       <c r="D9" s="7">
-        <f t="shared" si="1"/>
+        <f>B9*0.9</f>
         <v>13725</v>
       </c>
       <c r="E9" s="7">
-        <f t="shared" si="2"/>
-        <v>12200</v>
+        <f>B9*0.75</f>
+        <v>11437.5</v>
       </c>
       <c r="F9" s="7"/>
     </row>
@@ -992,8 +989,8 @@
         <v>831600</v>
       </c>
       <c r="E21" s="7">
-        <f>D21*0.8</f>
-        <v>665280</v>
+        <f>B21*0.65</f>
+        <v>600600</v>
       </c>
       <c r="F21" s="7"/>
     </row>
@@ -1009,12 +1006,12 @@
         <v>17556</v>
       </c>
       <c r="D22" s="7">
-        <f t="shared" ref="D22" si="3">B22*0.9</f>
+        <f>B22*0.9</f>
         <v>16632</v>
       </c>
       <c r="E22" s="7">
-        <f t="shared" ref="E22" si="4">D22*0.8</f>
-        <v>13305.6</v>
+        <f>B22*0.65</f>
+        <v>12012</v>
       </c>
       <c r="F22" s="7"/>
     </row>
@@ -1129,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF26B971-9089-40B6-B7D9-B4FE2F3EF079}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,8 +1191,8 @@
         <v>47.7</v>
       </c>
       <c r="E4" s="7">
-        <f>B4*0.8</f>
-        <v>42.400000000000006</v>
+        <f>B4*0.75</f>
+        <v>39.75</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1255,8 +1252,8 @@
         <v>28.62</v>
       </c>
       <c r="E8" s="7">
-        <f>B8*0.8</f>
-        <v>25.44</v>
+        <f>B8*0.75</f>
+        <v>23.85</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1425,8 +1422,8 @@
         <v>831600</v>
       </c>
       <c r="E21" s="7">
-        <f>D21*0.8</f>
-        <v>665280</v>
+        <f>B21*0.65</f>
+        <v>600600</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1445,8 +1442,8 @@
         <v>16632</v>
       </c>
       <c r="E22" s="7">
-        <f t="shared" ref="E22" si="1">D22*0.8</f>
-        <v>13305.6</v>
+        <f>B22*0.65</f>
+        <v>12012</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1462,8 +1459,8 @@
       <c r="D23" s="7">
         <v>1.33</v>
       </c>
-      <c r="E23" s="14">
-        <v>1.06</v>
+      <c r="E23" s="7">
+        <v>1.33</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1544,256 +1541,256 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="16" customWidth="1"/>
-    <col min="6" max="10" width="9.140625" style="16"/>
-    <col min="11" max="11" width="33.5703125" style="16" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="16" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="16" customWidth="1"/>
-    <col min="14" max="15" width="13.85546875" style="16" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="29.28515625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="15" customWidth="1"/>
+    <col min="6" max="10" width="9.140625" style="15"/>
+    <col min="11" max="11" width="33.5703125" style="15" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="15" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="15" customWidth="1"/>
+    <col min="14" max="15" width="13.85546875" style="15" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="22">
+      <c r="A3" s="21">
         <v>3</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="17" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="21">
         <v>3.5</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="17" t="s">
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="22">
+      <c r="A4" s="21">
         <v>3.5</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="21">
         <v>4</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="17" t="s">
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="O4" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="22">
+      <c r="A5" s="21">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="21">
         <v>4.5</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="N5" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <v>4.5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="21">
         <v>5</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="O6" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>5</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="21">
         <v>5.5</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="O7" s="17" t="s">
+      <c r="O7" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="22">
+      <c r="A8" s="21">
         <v>5.5</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="K8" s="22">
+      <c r="E8" s="17"/>
+      <c r="K8" s="21">
         <v>6</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="M8" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="N8" s="17" t="s">
+      <c r="N8" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="O8" s="18"/>
+      <c r="O8" s="17"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="22">
+      <c r="A9" s="21">
         <v>6</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="K9" s="22">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="K9" s="21">
         <v>6.5</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="M9" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/models/Athens DESFA exit point new obj/Data/parameters_guide_new_obj.xlsx
+++ b/models/Athens DESFA exit point new obj/Data/parameters_guide_new_obj.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epuntuagr-my.sharepoint.com/personal/hkoutalidis_epu_ntua_gr/Documents/Enershare/Paper 2 H2 scenarios paper/P2G_Hydrogen_Repository_remote/models/Athens DESFA exit point new obj/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="256" documentId="11_F25DC773A252ABDACC104899015D5D385ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDF4EBC0-54EF-44B6-80E6-B0722EEFB4FB}"/>
+  <xr:revisionPtr revIDLastSave="271" documentId="11_F25DC773A252ABDACC104899015D5D385ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61D77D15-6CB7-4706-A477-4FA05148193A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulations S2.1 (own RES inve)" sheetId="1" r:id="rId1"/>
@@ -38,29 +38,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="35">
   <si>
     <t>Generators</t>
   </si>
   <si>
-    <t>WF capital costs (EUR/MW)</t>
-  </si>
-  <si>
-    <t>WF marginal costs (EUR/MWh)</t>
-  </si>
-  <si>
-    <t>WF Fixed opex  (EUR/MW/year)</t>
-  </si>
-  <si>
-    <t>SF capital costs (EUR/MW)</t>
-  </si>
-  <si>
-    <t>SF marginal costs (EUR/MWh)</t>
-  </si>
-  <si>
-    <t>SF Fixed opex  (EUR/MW/year)</t>
-  </si>
-  <si>
     <t>Electrolyzer</t>
   </si>
   <si>
@@ -76,48 +58,18 @@
     <t>H2 storage</t>
   </si>
   <si>
-    <t>capital cost (EUR/MWh H2)</t>
-  </si>
-  <si>
     <t>Fixed OPEX (EUR/MWh/year)</t>
   </si>
   <si>
     <t>marginal cost (EUR/MWh H2)</t>
   </si>
   <si>
-    <t>charging efficiency</t>
-  </si>
-  <si>
-    <t>discharging efficincy</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Capexes are scaled for 10 years. If a component has capex C, and lifetime L, then its capex here is C*10/L</t>
-  </si>
-  <si>
-    <t>Fixed OPEX (EUR/MW/year)</t>
-  </si>
-  <si>
     <t>Var Opex (EUR/MWh)</t>
   </si>
   <si>
     <t>Max injection ratio (MHA)</t>
   </si>
   <si>
-    <t>Wind capital costs (EUR/MW)</t>
-  </si>
-  <si>
-    <t>Wind marginal costs (EUR/MWh)</t>
-  </si>
-  <si>
-    <t>Solar capital costs (EUR/MW)</t>
-  </si>
-  <si>
-    <t>Solar marginal costs (EUR/MWh)</t>
-  </si>
-  <si>
     <t xml:space="preserve">sensitivity analysis scenario </t>
   </si>
   <si>
@@ -133,12 +85,6 @@
     <t>LE3</t>
   </si>
   <si>
-    <t>Wind Fixed opex (EUR/MW/year)</t>
-  </si>
-  <si>
-    <t>Solar Fixed opex  (EUR/MW/year)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Max injection ratio (MHA) </t>
   </si>
   <si>
@@ -173,6 +119,30 @@
   </si>
   <si>
     <t xml:space="preserve">Main </t>
+  </si>
+  <si>
+    <t>wind spec capex (EUR/MW)</t>
+  </si>
+  <si>
+    <t>solar spec capex (EUR/MW)</t>
+  </si>
+  <si>
+    <t>wind marginal costs (EUR/MWh)</t>
+  </si>
+  <si>
+    <t>wind Fixed opex  (EUR/MW/year)</t>
+  </si>
+  <si>
+    <t>solar marginal costs (EUR/MWh)</t>
+  </si>
+  <si>
+    <t>solar Fixed opex  (EUR/MW/year)</t>
+  </si>
+  <si>
+    <t>spec capex (EUR/MW)</t>
+  </si>
+  <si>
+    <t>H2 spec capex (EUR/MWh H2)</t>
   </si>
 </sst>
 </file>
@@ -661,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,16 +648,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -697,7 +667,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B3" s="7">
         <v>1104000</v>
@@ -718,7 +688,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B4" s="8">
         <v>0</v>
@@ -728,18 +698,18 @@
         <v>0</v>
       </c>
       <c r="D4" s="8">
-        <f t="shared" ref="D4:D9" si="1">B4*0.9</f>
+        <f t="shared" ref="D4:D8" si="1">B4*0.9</f>
         <v>0</v>
       </c>
       <c r="E4" s="8">
-        <f t="shared" ref="E4:E9" si="2">B4*0.8</f>
+        <f t="shared" ref="E4:E8" si="2">B4*0.8</f>
         <v>0</v>
       </c>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B5" s="7">
         <v>27400</v>
@@ -768,7 +738,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B7" s="7">
         <v>680000</v>
@@ -789,7 +759,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B8" s="8">
         <v>0</v>
@@ -810,7 +780,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B9" s="7">
         <v>15250</v>
@@ -845,7 +815,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -855,7 +825,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B13" s="7">
         <v>14500</v>
@@ -876,7 +846,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B14" s="7">
         <v>290</v>
@@ -897,7 +867,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B15" s="7">
         <v>0</v>
@@ -914,208 +884,155 @@
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0.99</v>
-      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0.99</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="A18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="7">
+        <v>924000</v>
+      </c>
+      <c r="C18" s="7">
+        <f>B18*0.95</f>
+        <v>877800</v>
+      </c>
+      <c r="D18" s="7">
+        <f>B18*0.9</f>
+        <v>831600</v>
+      </c>
+      <c r="E18" s="7">
+        <f>B18*0.65</f>
+        <v>600600</v>
+      </c>
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="A19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="7">
+        <v>18480</v>
+      </c>
+      <c r="C19" s="7">
+        <f>B19*0.95</f>
+        <v>17556</v>
+      </c>
+      <c r="D19" s="7">
+        <f>B19*0.9</f>
+        <v>16632</v>
+      </c>
+      <c r="E19" s="7">
+        <f>B19*0.65</f>
+        <v>12012</v>
+      </c>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="A20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1.33</v>
+      </c>
+      <c r="C20" s="7">
+        <f>$B$20</f>
+        <v>1.33</v>
+      </c>
+      <c r="D20" s="7">
+        <f>$B$20</f>
+        <v>1.33</v>
+      </c>
+      <c r="E20" s="7">
+        <f>$B$20</f>
+        <v>1.33</v>
+      </c>
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B21" s="7">
-        <v>924000</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="C21" s="7">
-        <f>B21*0.95</f>
-        <v>877800</v>
-      </c>
-      <c r="D21" s="7">
-        <f>B21*0.9</f>
-        <v>831600</v>
-      </c>
-      <c r="E21" s="7">
-        <f>B21*0.65</f>
-        <v>600600</v>
+        <v>0.79</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.82</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.85</v>
       </c>
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="7">
-        <v>18480</v>
-      </c>
-      <c r="C22" s="7">
-        <f>B22*0.95</f>
-        <v>17556</v>
-      </c>
-      <c r="D22" s="7">
-        <f>B22*0.9</f>
-        <v>16632</v>
-      </c>
-      <c r="E22" s="7">
-        <f>B22*0.65</f>
-        <v>12012</v>
-      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="7">
-        <v>1.33</v>
-      </c>
-      <c r="C23" s="7">
-        <f>$B$23</f>
-        <v>1.33</v>
-      </c>
-      <c r="D23" s="7">
-        <f>$B$23</f>
-        <v>1.33</v>
-      </c>
-      <c r="E23" s="7">
-        <f>$B$23</f>
-        <v>1.33</v>
+      <c r="A23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0.5</v>
       </c>
       <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="7">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0.79</v>
-      </c>
-      <c r="D24" s="9">
-        <v>0.82</v>
-      </c>
-      <c r="E24" s="9">
-        <v>0.85</v>
-      </c>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="B25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="C26" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="D26" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="E26" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>18</v>
-      </c>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1124,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF26B971-9089-40B6-B7D9-B4FE2F3EF079}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,16 +1058,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1160,7 +1077,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B3" s="13">
         <v>0</v>
@@ -1177,7 +1094,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B4" s="7">
         <v>53</v>
@@ -1197,7 +1114,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="13">
         <v>0</v>
@@ -1221,7 +1138,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B7" s="13">
         <v>0</v>
@@ -1238,7 +1155,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B8" s="7">
         <v>31.8</v>
@@ -1287,7 +1204,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1296,7 +1213,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B13" s="7">
         <v>14500</v>
@@ -1316,7 +1233,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B14" s="7">
         <v>290</v>
@@ -1336,7 +1253,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B15" s="7">
         <v>0</v>
@@ -1352,132 +1269,122 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0.99</v>
-      </c>
+      <c r="A16" s="5"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0.99</v>
-      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="A19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="7">
+        <v>924000</v>
+      </c>
+      <c r="C19" s="7">
+        <f>B19*0.95</f>
+        <v>877800</v>
+      </c>
+      <c r="D19" s="7">
+        <f>B19*0.9</f>
+        <v>831600</v>
+      </c>
+      <c r="E19" s="7">
+        <f>B19*0.65</f>
+        <v>600600</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="A20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="7">
+        <v>18480</v>
+      </c>
+      <c r="C20" s="7">
+        <f>B20*0.95</f>
+        <v>17556</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" ref="D20" si="0">B20*0.9</f>
+        <v>16632</v>
+      </c>
+      <c r="E20" s="7">
+        <f>B20*0.65</f>
+        <v>12012</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="7">
-        <v>924000</v>
+        <v>1.33</v>
       </c>
       <c r="C21" s="7">
-        <f>B21*0.95</f>
-        <v>877800</v>
+        <v>1.33</v>
       </c>
       <c r="D21" s="7">
-        <f>B21*0.9</f>
-        <v>831600</v>
+        <v>1.33</v>
       </c>
       <c r="E21" s="7">
-        <f>B21*0.65</f>
-        <v>600600</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.79</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.82</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="7">
-        <v>18480</v>
-      </c>
-      <c r="C22" s="7">
-        <f>B22*0.95</f>
-        <v>17556</v>
-      </c>
-      <c r="D22" s="7">
-        <f t="shared" ref="D22" si="0">B22*0.9</f>
-        <v>16632</v>
-      </c>
-      <c r="E22" s="7">
-        <f>B22*0.65</f>
-        <v>12012</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="7">
-        <v>1.33</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1.33</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1.33</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="7">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0.79</v>
-      </c>
-      <c r="D24" s="9">
-        <v>0.82</v>
-      </c>
-      <c r="E24" s="9">
-        <v>0.85</v>
+      <c r="B24" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1487,43 +1394,20 @@
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="C26" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="D26" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="E26" s="12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>30</v>
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1536,7 +1420,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1556,48 +1440,48 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -1608,7 +1492,7 @@
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="16" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K3" s="21">
         <v>3.5</v>
@@ -1617,7 +1501,7 @@
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
       <c r="O3" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -1627,10 +1511,10 @@
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="16" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K4" s="21">
         <v>4</v>
@@ -1638,10 +1522,10 @@
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
       <c r="N4" s="16" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -1649,31 +1533,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K5" s="21">
         <v>4.5</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -1681,31 +1565,31 @@
         <v>4.5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K6" s="21">
         <v>5</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -1713,31 +1597,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K7" s="21">
         <v>5.5</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N7" s="16" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -1745,26 +1629,26 @@
         <v>5.5</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E8" s="17"/>
       <c r="K8" s="21">
         <v>6</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="O8" s="17"/>
     </row>
@@ -1773,10 +1657,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -1784,10 +1668,10 @@
         <v>6.5</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>

--- a/models/Athens DESFA exit point new obj/Data/parameters_guide_new_obj.xlsx
+++ b/models/Athens DESFA exit point new obj/Data/parameters_guide_new_obj.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epuntuagr-my.sharepoint.com/personal/hkoutalidis_epu_ntua_gr/Documents/Enershare/Paper 2 H2 scenarios paper/P2G_Hydrogen_Repository_remote/models/Athens DESFA exit point new obj/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="271" documentId="11_F25DC773A252ABDACC104899015D5D385ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61D77D15-6CB7-4706-A477-4FA05148193A}"/>
+  <xr:revisionPtr revIDLastSave="279" documentId="11_F25DC773A252ABDACC104899015D5D385ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC02E7FD-1434-4274-A178-AF5EF98705A7}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulations S2.1 (own RES inve)" sheetId="1" r:id="rId1"/>
@@ -238,7 +238,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,6 +254,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5F5F5F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -347,12 +353,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF5F5F5F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1043,7 +1067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF26B971-9089-40B6-B7D9-B4FE2F3EF079}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -1417,10 +1441,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7809701A-2FC3-419D-BEE8-A269C50FB095}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1485,56 +1509,46 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="21">
-        <v>3</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="A3" s="27">
+        <v>2.8</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="21">
-        <v>3.5</v>
-      </c>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="16" t="s">
-        <v>20</v>
-      </c>
+      <c r="K3" s="21"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
-        <v>3.5</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="16" t="s">
-        <v>21</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="16" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="21">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
-      <c r="N4" s="16" t="s">
-        <v>19</v>
-      </c>
+      <c r="N4" s="17"/>
       <c r="O4" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
-        <v>4</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>19</v>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="B5" s="26"/>
       <c r="C5" s="16" t="s">
         <v>20</v>
       </c>
@@ -1545,14 +1559,10 @@
         <v>19</v>
       </c>
       <c r="K5" s="21">
-        <v>4.5</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>21</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
       <c r="N5" s="16" t="s">
         <v>19</v>
       </c>
@@ -1562,7 +1572,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>19</v>
@@ -1577,7 +1587,7 @@
         <v>19</v>
       </c>
       <c r="K6" s="21">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L6" s="16" t="s">
         <v>20</v>
@@ -1594,7 +1604,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>19</v>
@@ -1609,7 +1619,7 @@
         <v>19</v>
       </c>
       <c r="K7" s="21">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L7" s="16" t="s">
         <v>20</v>
@@ -1626,7 +1636,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>19</v>
@@ -1637,9 +1647,9 @@
       <c r="D8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="24"/>
       <c r="K8" s="21">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L8" s="16" t="s">
         <v>20</v>
@@ -1650,11 +1660,13 @@
       <c r="N8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="17"/>
+      <c r="O8" s="16" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
@@ -1662,10 +1674,12 @@
       <c r="C9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="D9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="26"/>
       <c r="K9" s="21">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L9" s="16" t="s">
         <v>20</v>
@@ -1673,8 +1687,31 @@
       <c r="M9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="17"/>
+      <c r="N9" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="O9" s="17"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="21">
+        <v>6</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="K10" s="21">
+        <v>6.5</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/models/Athens DESFA exit point new obj/Data/parameters_guide_new_obj.xlsx
+++ b/models/Athens DESFA exit point new obj/Data/parameters_guide_new_obj.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epuntuagr-my.sharepoint.com/personal/hkoutalidis_epu_ntua_gr/Documents/Enershare/Paper 2 H2 scenarios paper/P2G_Hydrogen_Repository_remote/models/Athens DESFA exit point new obj/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="256" documentId="11_F25DC773A252ABDACC104899015D5D385ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDF4EBC0-54EF-44B6-80E6-B0722EEFB4FB}"/>
+  <xr:revisionPtr revIDLastSave="279" documentId="11_F25DC773A252ABDACC104899015D5D385ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC02E7FD-1434-4274-A178-AF5EF98705A7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulations S2.1 (own RES inve)" sheetId="1" r:id="rId1"/>
@@ -38,29 +38,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="35">
   <si>
     <t>Generators</t>
   </si>
   <si>
-    <t>WF capital costs (EUR/MW)</t>
-  </si>
-  <si>
-    <t>WF marginal costs (EUR/MWh)</t>
-  </si>
-  <si>
-    <t>WF Fixed opex  (EUR/MW/year)</t>
-  </si>
-  <si>
-    <t>SF capital costs (EUR/MW)</t>
-  </si>
-  <si>
-    <t>SF marginal costs (EUR/MWh)</t>
-  </si>
-  <si>
-    <t>SF Fixed opex  (EUR/MW/year)</t>
-  </si>
-  <si>
     <t>Electrolyzer</t>
   </si>
   <si>
@@ -76,48 +58,18 @@
     <t>H2 storage</t>
   </si>
   <si>
-    <t>capital cost (EUR/MWh H2)</t>
-  </si>
-  <si>
     <t>Fixed OPEX (EUR/MWh/year)</t>
   </si>
   <si>
     <t>marginal cost (EUR/MWh H2)</t>
   </si>
   <si>
-    <t>charging efficiency</t>
-  </si>
-  <si>
-    <t>discharging efficincy</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Capexes are scaled for 10 years. If a component has capex C, and lifetime L, then its capex here is C*10/L</t>
-  </si>
-  <si>
-    <t>Fixed OPEX (EUR/MW/year)</t>
-  </si>
-  <si>
     <t>Var Opex (EUR/MWh)</t>
   </si>
   <si>
     <t>Max injection ratio (MHA)</t>
   </si>
   <si>
-    <t>Wind capital costs (EUR/MW)</t>
-  </si>
-  <si>
-    <t>Wind marginal costs (EUR/MWh)</t>
-  </si>
-  <si>
-    <t>Solar capital costs (EUR/MW)</t>
-  </si>
-  <si>
-    <t>Solar marginal costs (EUR/MWh)</t>
-  </si>
-  <si>
     <t xml:space="preserve">sensitivity analysis scenario </t>
   </si>
   <si>
@@ -133,12 +85,6 @@
     <t>LE3</t>
   </si>
   <si>
-    <t>Wind Fixed opex (EUR/MW/year)</t>
-  </si>
-  <si>
-    <t>Solar Fixed opex  (EUR/MW/year)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Max injection ratio (MHA) </t>
   </si>
   <si>
@@ -173,6 +119,30 @@
   </si>
   <si>
     <t xml:space="preserve">Main </t>
+  </si>
+  <si>
+    <t>wind spec capex (EUR/MW)</t>
+  </si>
+  <si>
+    <t>solar spec capex (EUR/MW)</t>
+  </si>
+  <si>
+    <t>wind marginal costs (EUR/MWh)</t>
+  </si>
+  <si>
+    <t>wind Fixed opex  (EUR/MW/year)</t>
+  </si>
+  <si>
+    <t>solar marginal costs (EUR/MWh)</t>
+  </si>
+  <si>
+    <t>solar Fixed opex  (EUR/MW/year)</t>
+  </si>
+  <si>
+    <t>spec capex (EUR/MW)</t>
+  </si>
+  <si>
+    <t>H2 spec capex (EUR/MWh H2)</t>
   </si>
 </sst>
 </file>
@@ -268,7 +238,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,6 +254,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5F5F5F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -377,12 +353,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF5F5F5F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -661,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,16 +672,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -697,7 +691,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B3" s="7">
         <v>1104000</v>
@@ -718,7 +712,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B4" s="8">
         <v>0</v>
@@ -728,18 +722,18 @@
         <v>0</v>
       </c>
       <c r="D4" s="8">
-        <f t="shared" ref="D4:D9" si="1">B4*0.9</f>
+        <f t="shared" ref="D4:D8" si="1">B4*0.9</f>
         <v>0</v>
       </c>
       <c r="E4" s="8">
-        <f t="shared" ref="E4:E9" si="2">B4*0.8</f>
+        <f t="shared" ref="E4:E8" si="2">B4*0.8</f>
         <v>0</v>
       </c>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B5" s="7">
         <v>27400</v>
@@ -768,7 +762,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B7" s="7">
         <v>680000</v>
@@ -789,7 +783,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B8" s="8">
         <v>0</v>
@@ -810,7 +804,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B9" s="7">
         <v>15250</v>
@@ -845,7 +839,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -855,7 +849,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B13" s="7">
         <v>14500</v>
@@ -876,7 +870,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B14" s="7">
         <v>290</v>
@@ -897,7 +891,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B15" s="7">
         <v>0</v>
@@ -914,208 +908,155 @@
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0.99</v>
-      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0.99</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="A18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="7">
+        <v>924000</v>
+      </c>
+      <c r="C18" s="7">
+        <f>B18*0.95</f>
+        <v>877800</v>
+      </c>
+      <c r="D18" s="7">
+        <f>B18*0.9</f>
+        <v>831600</v>
+      </c>
+      <c r="E18" s="7">
+        <f>B18*0.65</f>
+        <v>600600</v>
+      </c>
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="A19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="7">
+        <v>18480</v>
+      </c>
+      <c r="C19" s="7">
+        <f>B19*0.95</f>
+        <v>17556</v>
+      </c>
+      <c r="D19" s="7">
+        <f>B19*0.9</f>
+        <v>16632</v>
+      </c>
+      <c r="E19" s="7">
+        <f>B19*0.65</f>
+        <v>12012</v>
+      </c>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="A20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1.33</v>
+      </c>
+      <c r="C20" s="7">
+        <f>$B$20</f>
+        <v>1.33</v>
+      </c>
+      <c r="D20" s="7">
+        <f>$B$20</f>
+        <v>1.33</v>
+      </c>
+      <c r="E20" s="7">
+        <f>$B$20</f>
+        <v>1.33</v>
+      </c>
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B21" s="7">
-        <v>924000</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="C21" s="7">
-        <f>B21*0.95</f>
-        <v>877800</v>
-      </c>
-      <c r="D21" s="7">
-        <f>B21*0.9</f>
-        <v>831600</v>
-      </c>
-      <c r="E21" s="7">
-        <f>B21*0.65</f>
-        <v>600600</v>
+        <v>0.79</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.82</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.85</v>
       </c>
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="7">
-        <v>18480</v>
-      </c>
-      <c r="C22" s="7">
-        <f>B22*0.95</f>
-        <v>17556</v>
-      </c>
-      <c r="D22" s="7">
-        <f>B22*0.9</f>
-        <v>16632</v>
-      </c>
-      <c r="E22" s="7">
-        <f>B22*0.65</f>
-        <v>12012</v>
-      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="7">
-        <v>1.33</v>
-      </c>
-      <c r="C23" s="7">
-        <f>$B$23</f>
-        <v>1.33</v>
-      </c>
-      <c r="D23" s="7">
-        <f>$B$23</f>
-        <v>1.33</v>
-      </c>
-      <c r="E23" s="7">
-        <f>$B$23</f>
-        <v>1.33</v>
+      <c r="A23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0.5</v>
       </c>
       <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="7">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0.79</v>
-      </c>
-      <c r="D24" s="9">
-        <v>0.82</v>
-      </c>
-      <c r="E24" s="9">
-        <v>0.85</v>
-      </c>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="B25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="C26" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="D26" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="E26" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>18</v>
-      </c>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1124,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF26B971-9089-40B6-B7D9-B4FE2F3EF079}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,16 +1082,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1160,7 +1101,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B3" s="13">
         <v>0</v>
@@ -1177,7 +1118,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B4" s="7">
         <v>53</v>
@@ -1197,7 +1138,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="13">
         <v>0</v>
@@ -1221,7 +1162,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B7" s="13">
         <v>0</v>
@@ -1238,7 +1179,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B8" s="7">
         <v>31.8</v>
@@ -1287,7 +1228,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1296,7 +1237,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B13" s="7">
         <v>14500</v>
@@ -1316,7 +1257,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B14" s="7">
         <v>290</v>
@@ -1336,7 +1277,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B15" s="7">
         <v>0</v>
@@ -1352,132 +1293,122 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0.99</v>
-      </c>
+      <c r="A16" s="5"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0.99</v>
-      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="A19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="7">
+        <v>924000</v>
+      </c>
+      <c r="C19" s="7">
+        <f>B19*0.95</f>
+        <v>877800</v>
+      </c>
+      <c r="D19" s="7">
+        <f>B19*0.9</f>
+        <v>831600</v>
+      </c>
+      <c r="E19" s="7">
+        <f>B19*0.65</f>
+        <v>600600</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="A20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="7">
+        <v>18480</v>
+      </c>
+      <c r="C20" s="7">
+        <f>B20*0.95</f>
+        <v>17556</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" ref="D20" si="0">B20*0.9</f>
+        <v>16632</v>
+      </c>
+      <c r="E20" s="7">
+        <f>B20*0.65</f>
+        <v>12012</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="7">
-        <v>924000</v>
+        <v>1.33</v>
       </c>
       <c r="C21" s="7">
-        <f>B21*0.95</f>
-        <v>877800</v>
+        <v>1.33</v>
       </c>
       <c r="D21" s="7">
-        <f>B21*0.9</f>
-        <v>831600</v>
+        <v>1.33</v>
       </c>
       <c r="E21" s="7">
-        <f>B21*0.65</f>
-        <v>600600</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.79</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.82</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="7">
-        <v>18480</v>
-      </c>
-      <c r="C22" s="7">
-        <f>B22*0.95</f>
-        <v>17556</v>
-      </c>
-      <c r="D22" s="7">
-        <f t="shared" ref="D22" si="0">B22*0.9</f>
-        <v>16632</v>
-      </c>
-      <c r="E22" s="7">
-        <f>B22*0.65</f>
-        <v>12012</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="7">
-        <v>1.33</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1.33</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1.33</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="7">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0.79</v>
-      </c>
-      <c r="D24" s="9">
-        <v>0.82</v>
-      </c>
-      <c r="E24" s="9">
-        <v>0.85</v>
+      <c r="B24" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1487,43 +1418,20 @@
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="C26" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="D26" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="E26" s="12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>30</v>
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1533,10 +1441,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7809701A-2FC3-419D-BEE8-A269C50FB095}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1556,241 +1464,254 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="21">
-        <v>3</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="A3" s="27">
+        <v>2.8</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="21">
-        <v>3.5</v>
-      </c>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="16" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="K3" s="21"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
+        <v>3</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="21">
         <v>3.5</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="21">
-        <v>4</v>
       </c>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
-      <c r="N4" s="16" t="s">
-        <v>37</v>
-      </c>
+      <c r="N4" s="17"/>
       <c r="O4" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="21">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="21">
-        <v>4.5</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>39</v>
-      </c>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
       <c r="N5" s="16" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
+        <v>4</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="21">
         <v>4.5</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="21">
-        <v>5</v>
-      </c>
       <c r="L6" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
+        <v>4.5</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="21">
         <v>5</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="21">
-        <v>5.5</v>
-      </c>
       <c r="L7" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N7" s="16" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
+        <v>5</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="K8" s="21">
         <v>5.5</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="K8" s="21">
-        <v>6</v>
-      </c>
       <c r="L8" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" s="17"/>
+        <v>19</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
+        <v>5.5</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="K9" s="21">
         <v>6</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="K9" s="21">
+      <c r="L9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="17"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="21">
+        <v>6</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="K10" s="21">
         <v>6.5</v>
       </c>
-      <c r="L9" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
+      <c r="L10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/models/Athens DESFA exit point new obj/Data/parameters_guide_new_obj.xlsx
+++ b/models/Athens DESFA exit point new obj/Data/parameters_guide_new_obj.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epuntuagr-my.sharepoint.com/personal/hkoutalidis_epu_ntua_gr/Documents/Enershare/Paper 2 H2 scenarios paper/P2G_Hydrogen_Repository_remote/models/Athens DESFA exit point new obj/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="279" documentId="11_F25DC773A252ABDACC104899015D5D385ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC02E7FD-1434-4274-A178-AF5EF98705A7}"/>
+  <xr:revisionPtr revIDLastSave="296" documentId="11_F25DC773A252ABDACC104899015D5D385ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{512AC6F6-D4AE-458E-93C4-E49002B450FD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4110" yWindow="4110" windowWidth="15495" windowHeight="10485" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulations S2.1 (own RES inve)" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="36">
   <si>
     <t>Generators</t>
   </si>
@@ -143,13 +143,16 @@
   </si>
   <si>
     <t>H2 spec capex (EUR/MWh H2)</t>
+  </si>
+  <si>
+    <t>Ε</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +240,23 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -305,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -353,11 +373,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -365,6 +385,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1443,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7809701A-2FC3-419D-BEE8-A269C50FB095}">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1518,11 +1547,15 @@
       <c r="E3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="21"/>
+      <c r="K3" s="21">
+        <v>3.05</v>
+      </c>
       <c r="L3" s="23"/>
       <c r="M3" s="23"/>
       <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
+      <c r="O3" s="30" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
@@ -1549,10 +1582,10 @@
         <v>3.5</v>
       </c>
       <c r="B5" s="26"/>
-      <c r="C5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="16" t="s">
@@ -1574,13 +1607,13 @@
       <c r="A6" s="21">
         <v>4</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="28" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="16" t="s">
@@ -1606,13 +1639,13 @@
       <c r="A7" s="21">
         <v>4.5</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="16" t="s">
@@ -1638,13 +1671,13 @@
       <c r="A8" s="21">
         <v>5</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="16" t="s">
+      <c r="C8" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="28" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="24"/>
@@ -1660,21 +1693,19 @@
       <c r="N8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="16" t="s">
-        <v>20</v>
-      </c>
+      <c r="O8" s="16"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
         <v>5.5</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="16" t="s">
+      <c r="C9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="28" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="26"/>
@@ -1696,7 +1727,7 @@
       <c r="A10" s="21">
         <v>6</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="29" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="26"/>

--- a/models/Athens DESFA exit point new obj/Data/parameters_guide_new_obj.xlsx
+++ b/models/Athens DESFA exit point new obj/Data/parameters_guide_new_obj.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epuntuagr-my.sharepoint.com/personal/hkoutalidis_epu_ntua_gr/Documents/Enershare/Paper 2 H2 scenarios paper/P2G_Hydrogen_Repository_remote/models/Athens DESFA exit point new obj/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="296" documentId="11_F25DC773A252ABDACC104899015D5D385ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{512AC6F6-D4AE-458E-93C4-E49002B450FD}"/>
+  <xr:revisionPtr revIDLastSave="297" documentId="11_F25DC773A252ABDACC104899015D5D385ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B98479D1-DFE2-4F7F-95DC-80656B846803}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="4110" windowWidth="15495" windowHeight="10485" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4455" yWindow="4455" windowWidth="15495" windowHeight="10485" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulations S2.1 (own RES inve)" sheetId="1" r:id="rId1"/>
@@ -1472,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7809701A-2FC3-419D-BEE8-A269C50FB095}">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1607,7 +1607,7 @@
       <c r="A6" s="21">
         <v>4</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="29" t="s">
@@ -1639,7 +1639,7 @@
       <c r="A7" s="21">
         <v>4.5</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="29" t="s">
@@ -1671,7 +1671,7 @@
       <c r="A8" s="21">
         <v>5</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="29" t="s">
@@ -1699,7 +1699,7 @@
       <c r="A9" s="21">
         <v>5.5</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="29" t="s">
@@ -1727,7 +1727,7 @@
       <c r="A10" s="21">
         <v>6</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="26"/>

--- a/models/Athens DESFA exit point new obj/Data/parameters_guide_new_obj.xlsx
+++ b/models/Athens DESFA exit point new obj/Data/parameters_guide_new_obj.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epuntuagr-my.sharepoint.com/personal/hkoutalidis_epu_ntua_gr/Documents/Enershare/Paper 2 H2 scenarios paper/P2G_Hydrogen_Repository_remote/models/Athens DESFA exit point new obj/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="297" documentId="11_F25DC773A252ABDACC104899015D5D385ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B98479D1-DFE2-4F7F-95DC-80656B846803}"/>
+  <xr:revisionPtr revIDLastSave="340" documentId="11_F25DC773A252ABDACC104899015D5D385ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09591CC4-96BC-4E8F-80C8-83C5893E537D}"/>
   <bookViews>
-    <workbookView xWindow="4455" yWindow="4455" windowWidth="15495" windowHeight="10485" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulations S2.1 (own RES inve)" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="40">
   <si>
     <t>Generators</t>
   </si>
@@ -146,6 +146,18 @@
   </si>
   <si>
     <t>Ε</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trexei: S2 main 4.5 3Y @19.10.2027 </t>
+  </si>
+  <si>
+    <t>Τρεχουν : S2 main: 4.65 4.7 5  2Y @21.10.2024 8:30</t>
+  </si>
+  <si>
+    <t>Τρεχουν : S2 LE2:   3.93 4 4.5 5 5.5 6 , 3Y @21.10.2024 8:43</t>
   </si>
 </sst>
 </file>
@@ -325,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -393,6 +405,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1470,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7809701A-2FC3-419D-BEE8-A269C50FB095}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1538,15 +1557,11 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="27">
-        <v>2.8</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="16" t="s">
-        <v>19</v>
-      </c>
+      <c r="A3" s="33"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
       <c r="K3" s="21">
         <v>3.05</v>
       </c>
@@ -1558,108 +1573,84 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="21">
-        <v>3</v>
-      </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="21">
-        <v>3.5</v>
-      </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="16" t="s">
-        <v>20</v>
+      <c r="A4" s="27">
+        <v>2.6</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="32">
+        <v>3.2</v>
+      </c>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="30" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="21">
-        <v>3.5</v>
-      </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="21">
-        <v>4</v>
-      </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>20</v>
+      <c r="A5" s="27">
+        <v>2.8</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="32">
+        <v>3.3</v>
+      </c>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="30" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
-        <v>4</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="28" t="s">
         <v>19</v>
       </c>
       <c r="K6" s="21">
-        <v>4.5</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>19</v>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
       <c r="O6" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
-        <v>4.5</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="29" t="s">
+        <v>3.5</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="28" t="s">
         <v>19</v>
       </c>
       <c r="K7" s="21">
-        <v>5</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>21</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
       <c r="N7" s="16" t="s">
         <v>19</v>
       </c>
@@ -1669,26 +1660,28 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="28" t="s">
+        <v>19</v>
+      </c>
       <c r="K8" s="21">
-        <v>5.5</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>21</v>
+        <v>4.5</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="28" t="s">
+        <v>19</v>
       </c>
       <c r="N8" s="16" t="s">
         <v>19</v>
@@ -1697,52 +1690,130 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="B9" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="26"/>
+      <c r="E9" s="28" t="s">
+        <v>19</v>
+      </c>
       <c r="K9" s="21">
-        <v>6</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>19</v>
       </c>
       <c r="N9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="17"/>
+      <c r="O9" s="16"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
+        <v>5</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="K10" s="21">
+        <v>5.5</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="16"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="21">
+        <v>5.5</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="K11" s="21">
         <v>6</v>
       </c>
-      <c r="B10" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="K10" s="21">
+      <c r="L11" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="17"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="21">
+        <v>6</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="K12" s="21">
         <v>6.5</v>
       </c>
-      <c r="L10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
+      <c r="L12" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
